--- a/meta/11-6-1-1.xlsx
+++ b/meta/11-6-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="11.6.1.1" sheetId="1" r:id="rId1"/>
@@ -99,12 +99,6 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sdg_nsc@stat.kg </t>
   </si>
   <si>
@@ -121,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">11. Обеспечение открытости, безопасности, жизнестойкости и экологической устойчивости городов и населенных пунктов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.stat.kg </t>
   </si>
   <si>
     <t>Общий объем вывезенных твердых бытовых отходов, включающие в себя изделия, материалы и вещества, утратившие свои потребительские качества, вследствие их физического или морального износа, а также твердые бытовые отходы, которые возникают в процессе жизнедеятельности людей.</t>
@@ -168,6 +159,15 @@
   <si>
     <t xml:space="preserve">Сбор данных осуществляется Национальным статистическим комитетом  КР на основе формы государственной статистической отчётности №1-«Благоустройство» на ежегодной основе от комбинатов коммунальных предприятий и организаций, ведущие деятельность по благоустройству городов и населенных пунктов, а также айыл окмоту и предприятия (спецавтохозяйства, спецавтобазы, дорожно-эксплуатационные управления и др.), имеющие спецавтомашины и выполняющие работы по вывозу бытовых отходов или по механизированной уборке в городской и сельской местности независимо от формы собственности 20- февраля территориальному органу государственной статистике или в Главный вычислительный центр Нацстаткома.
 </t>
+  </si>
+  <si>
+    <t>Мамбеталиев Т.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gov.kg </t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление цифрового развития и статистики устойчивого развития)</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1770,7 +1770,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="mailto:Kerimalieva20@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId2" display="http://www.stat.kg/"/>
+    <hyperlink ref="B10" r:id="rId2"/>
     <hyperlink ref="B26" r:id="rId3" display="http://www.stat.kg/ru/publications/sbornik-okruzhayushaya-sreda-v-kyrgyzskoj-respublike/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
